--- a/digAudio/BOM.xlsx
+++ b/digAudio/BOM.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="OC0808" sheetId="1" r:id="rId1"/>
     <sheet name="PLT133" sheetId="2" r:id="rId2"/>
-    <sheet name="RCJ-DA101JC" sheetId="3" r:id="rId3"/>
+    <sheet name="RCJ-DA101JC" sheetId="5" r:id="rId3"/>
     <sheet name="RCJ-tg10da1nslf" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>Designator</t>
   </si>
@@ -138,18 +138,9 @@
     <t>SMD0603</t>
   </si>
   <si>
-    <t>CRCW0603360RFKEA</t>
-  </si>
-  <si>
-    <t>360ohm / 0.1W</t>
-  </si>
-  <si>
     <t>CRCW060391R0FKEA</t>
   </si>
   <si>
-    <t>91ohm / 0.1W</t>
-  </si>
-  <si>
     <t>TG10-DA1NSLF</t>
   </si>
   <si>
@@ -175,13 +166,64 @@
   </si>
   <si>
     <t>use washer to adjust standoff and srew fit</t>
+  </si>
+  <si>
+    <t>For RCA-Setup</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>close jumper at upper branch (marked half)</t>
+  </si>
+  <si>
+    <t>For XLR setup</t>
+  </si>
+  <si>
+    <t>(untested)</t>
+  </si>
+  <si>
+    <t>close jumper at lower half</t>
+  </si>
+  <si>
+    <t>leave R2 unpopulated</t>
+  </si>
+  <si>
+    <t>XLR</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>connect positive part to middle pad of RCJ-01x-SMT footprint</t>
+  </si>
+  <si>
+    <t>connect positive part to left or right pad of RCJ-01x-SMT footprint</t>
+  </si>
+  <si>
+    <t>CRCW060357R6FKEA</t>
+  </si>
+  <si>
+    <t>CRCW0603348RFKEA</t>
+  </si>
+  <si>
+    <t>347.5ohm / 0.1W</t>
+  </si>
+  <si>
+    <t>90.9ohm / 0.1W</t>
+  </si>
+  <si>
+    <t>57ohm /0.1W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +243,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,18 +277,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,117 +613,117 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -676,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,106 +768,106 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -820,21 +875,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,24 +912,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -891,134 +963,210 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,29 +1189,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1075,113 +1240,189 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>